--- a/credit_visual_table.xlsx
+++ b/credit_visual_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="放款信息" sheetId="3" r:id="rId3"/>
     <sheet name="贷中贷后" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -53,7 +53,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="454">
+  <si>
+    <t>ZHB_CD_LOAN_INFO</t>
+  </si>
   <si>
     <t>申请单信息</t>
   </si>
@@ -955,9 +958,15 @@
     <t>初审内部意见</t>
   </si>
   <si>
+    <t>CREDIT_INFO_EVALUATE</t>
+  </si>
+  <si>
     <t>信用风险点</t>
   </si>
   <si>
+    <t>ZHB_CD_LOAN_CREDIT_INFO</t>
+  </si>
+  <si>
     <t>申请单信审信息</t>
   </si>
   <si>
@@ -1037,6 +1046,9 @@
   </si>
   <si>
     <t>产品期数</t>
+  </si>
+  <si>
+    <t>ZHB_CD_LOANBAL</t>
   </si>
   <si>
     <t>账户分账户表</t>
@@ -1293,6 +1305,9 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>lcinfo_pk_id</t>
+  </si>
+  <si>
     <t>loanid</t>
   </si>
   <si>
@@ -1408,523 +1423,6 @@
   </si>
   <si>
     <t>rresidence_prov_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>operater_id</t>
-  </si>
-  <si>
-    <t>operater_name</t>
-  </si>
-  <si>
-    <t>store_id</t>
-  </si>
-  <si>
-    <t>store_name</t>
-  </si>
-  <si>
-    <t>apply_date</t>
-  </si>
-  <si>
-    <t>apply_prodid</t>
-  </si>
-  <si>
-    <t>apply_prodname</t>
-  </si>
-  <si>
-    <t>apply_amount</t>
-  </si>
-  <si>
-    <t>apply_time_limit</t>
-  </si>
-  <si>
-    <t>apply_time_limit_val</t>
-  </si>
-  <si>
-    <t>sales_person_id</t>
-  </si>
-  <si>
-    <t>sales_person_name</t>
-  </si>
-  <si>
-    <t>sales_person_phone</t>
-  </si>
-  <si>
-    <t>team_manager_id</t>
-  </si>
-  <si>
-    <t>team_manager_name</t>
-  </si>
-  <si>
-    <t>urgency</t>
-  </si>
-  <si>
-    <t>urgency_val</t>
-  </si>
-  <si>
-    <t>is_round_status</t>
-  </si>
-  <si>
-    <t>is_round_status_val</t>
-  </si>
-  <si>
-    <t>pinfo_pk_id</t>
-  </si>
-  <si>
-    <t>house_prov_name</t>
-  </si>
-  <si>
-    <t>house_city_name</t>
-  </si>
-  <si>
-    <t>house_area_name</t>
-  </si>
-  <si>
-    <t>start_house_date</t>
-  </si>
-  <si>
-    <t>rent_monthly_pay</t>
-  </si>
-  <si>
-    <t>property_type</t>
-  </si>
-  <si>
-    <t>property_type_val</t>
-  </si>
-  <si>
-    <t>buy_time</t>
-  </si>
-  <si>
-    <t>buy_price</t>
-  </si>
-  <si>
-    <t>gfa</t>
-  </si>
-  <si>
-    <t>loan_life</t>
-  </si>
-  <si>
-    <t>credit_period</t>
-  </si>
-  <si>
-    <t>loans</t>
-  </si>
-  <si>
-    <t>mortgage_monthly_pay</t>
-  </si>
-  <si>
-    <t>is_house_all_val</t>
-  </si>
-  <si>
-    <t>is_house_all_reltion</t>
-  </si>
-  <si>
-    <t>property_prov_name</t>
-  </si>
-  <si>
-    <t>property_city_name</t>
-  </si>
-  <si>
-    <t>property_area_name</t>
-  </si>
-  <si>
-    <t>is_home_address</t>
-  </si>
-  <si>
-    <t>is_home_address_val</t>
-  </si>
-  <si>
-    <t>car_pk_id</t>
-  </si>
-  <si>
-    <t>car_hava</t>
-  </si>
-  <si>
-    <t>car_hava_val</t>
-  </si>
-  <si>
-    <t>price_car</t>
-  </si>
-  <si>
-    <t>car_age</t>
-  </si>
-  <si>
-    <t>loan_date</t>
-  </si>
-  <si>
-    <t>period_val</t>
-  </si>
-  <si>
-    <t>loan_ceiling</t>
-  </si>
-  <si>
-    <t>banlance_val</t>
-  </si>
-  <si>
-    <t>mortgage_monthly</t>
-  </si>
-  <si>
-    <t>rinfo_pk_id</t>
-  </si>
-  <si>
-    <t>is_private_owners</t>
-  </si>
-  <si>
-    <t>is_private_owners_val</t>
-  </si>
-  <si>
-    <t>employees_num</t>
-  </si>
-  <si>
-    <t>industry_in</t>
-  </si>
-  <si>
-    <t>industry_in_val</t>
-  </si>
-  <si>
-    <t>founded_date</t>
-  </si>
-  <si>
-    <t>full_work_name</t>
-  </si>
-  <si>
-    <t>company_kind</t>
-  </si>
-  <si>
-    <t>company_kind_val</t>
-  </si>
-  <si>
-    <t>work_department</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>position_val</t>
-  </si>
-  <si>
-    <t>position_txt</t>
-  </si>
-  <si>
-    <t>company_prov_name</t>
-  </si>
-  <si>
-    <t>company_city_name</t>
-  </si>
-  <si>
-    <t>company_area_name</t>
-  </si>
-  <si>
-    <t>salary_monthly</t>
-  </si>
-  <si>
-    <t>othter_income_monthly</t>
-  </si>
-  <si>
-    <t>start_work_time</t>
-  </si>
-  <si>
-    <t>social_security</t>
-  </si>
-  <si>
-    <t>social_security_val</t>
-  </si>
-  <si>
-    <t>company_size</t>
-  </si>
-  <si>
-    <t>company_size_val</t>
-  </si>
-  <si>
-    <t>cei_pk_id</t>
-  </si>
-  <si>
-    <t>no_cancel_card_account</t>
-  </si>
-  <si>
-    <t>creditc_total</t>
-  </si>
-  <si>
-    <t>creditc_max</t>
-  </si>
-  <si>
-    <t>creditc_used</t>
-  </si>
-  <si>
-    <t>first_card_year</t>
-  </si>
-  <si>
-    <t>card_current_overdue_amount</t>
-  </si>
-  <si>
-    <t>card_overdue_months</t>
-  </si>
-  <si>
-    <t>card_overdue_number</t>
-  </si>
-  <si>
-    <t>pay_house_loans_number</t>
-  </si>
-  <si>
-    <t>home_no_cancel_account</t>
-  </si>
-  <si>
-    <t>mortgage_total</t>
-  </si>
-  <si>
-    <t>mortgage_balance</t>
-  </si>
-  <si>
-    <t>home_monthly_repayment_amount</t>
-  </si>
-  <si>
-    <t>first_credit_year</t>
-  </si>
-  <si>
-    <t>home_current_overdue_amount</t>
-  </si>
-  <si>
-    <t>home_overdue_months</t>
-  </si>
-  <si>
-    <t>home_overdue_number</t>
-  </si>
-  <si>
-    <t>a_other_loans_number</t>
-  </si>
-  <si>
-    <t>other_no_cancel_account</t>
-  </si>
-  <si>
-    <t>other_monthly_repayment_amount</t>
-  </si>
-  <si>
-    <t>loan_amount_three</t>
-  </si>
-  <si>
-    <t>other_current_overdue_amount</t>
-  </si>
-  <si>
-    <t>other_first_credit_year</t>
-  </si>
-  <si>
-    <t>other_overdue_months</t>
-  </si>
-  <si>
-    <t>other_overdue_number</t>
-  </si>
-  <si>
-    <t>last_1_months</t>
-  </si>
-  <si>
-    <t>last_1_months_self</t>
-  </si>
-  <si>
-    <t>last_3_months</t>
-  </si>
-  <si>
-    <t>lde_pk_id</t>
-  </si>
-  <si>
-    <t>has_court_net_info</t>
-  </si>
-  <si>
-    <t>has_court_net_info_val</t>
-  </si>
-  <si>
-    <t>has_court_net_info_txt</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>work_prov_valid</t>
-  </si>
-  <si>
-    <t>work_prov_valid_val</t>
-  </si>
-  <si>
-    <t>work_prov_valid_txt</t>
-  </si>
-  <si>
-    <t>has_business_net_info</t>
-  </si>
-  <si>
-    <t>has_business_net_info_val</t>
-  </si>
-  <si>
-    <t>has_business_net_info_txt</t>
-  </si>
-  <si>
-    <t>address_prov_valid</t>
-  </si>
-  <si>
-    <t>address_prov_valid_val</t>
-  </si>
-  <si>
-    <t>address_prov_valid_txt</t>
-  </si>
-  <si>
-    <t>has_property</t>
-  </si>
-  <si>
-    <t>has_property_val</t>
-  </si>
-  <si>
-    <t>verified_income</t>
-  </si>
-  <si>
-    <t>verified_debet</t>
-  </si>
-  <si>
-    <t>theory_approv_amount</t>
-  </si>
-  <si>
-    <t>credit_debt_ratio</t>
-  </si>
-  <si>
-    <t>loan_data_analy</t>
-  </si>
-  <si>
-    <t>credit_info_evaluate</t>
-  </si>
-  <si>
-    <t>zhb_cd_property_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhb_cd_credit_evaluate_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loanid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhb_cd_car_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZHB_CD_LOAN_CREDIT_INFO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_pk_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>lcinfo_pk_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loanid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNDATE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhb_cd_borrower_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhb_cd_loan_data_evaluate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhb_cd_loan_credit_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_pk_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhb_cd_career_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loanbal_id</t>
-  </si>
-  <si>
-    <t>contno</t>
-  </si>
-  <si>
-    <t>paperid</t>
-  </si>
-  <si>
-    <t>prodid</t>
-  </si>
-  <si>
-    <t>prodname</t>
-  </si>
-  <si>
-    <t>tcapi</t>
-  </si>
-  <si>
-    <t>signtotalamt</t>
-  </si>
-  <si>
-    <t>tterm</t>
-  </si>
-  <si>
-    <t>signdate</t>
-  </si>
-  <si>
-    <t>begindate</t>
-  </si>
-  <si>
-    <t>enddate</t>
-  </si>
-  <si>
-    <t>firstretudate</t>
-  </si>
-  <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>operid</t>
-  </si>
-  <si>
-    <t>opername</t>
-  </si>
-  <si>
-    <t>pos_type</t>
-  </si>
-  <si>
-    <t>pos_type_val</t>
-  </si>
-  <si>
-    <t>zhb_cd_loanbal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT_INFO_EVALUATE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_account_number</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_6_months</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>custname</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZHB_CD_LOANBAL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhb_cd_loan_info</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +1442,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1958,7 +1455,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1971,13 +1467,11 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2012,7 +1506,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2022,18 +1516,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2091,11 +1573,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2398,81 +1875,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="28.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="8" customWidth="1"/>
-    <col min="6" max="7" width="5.25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="3.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="34.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.75" style="8" customWidth="1"/>
+    <col min="6" max="7" width="21.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>613</v>
+        <v>432</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>580</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
-        <v>20</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>"{'name': '"&amp;B2&amp;"', 'replace_name': '"&amp;C2&amp;"'},"</f>
-        <v>{'name': 'loan_pk_id', 'replace_name': '主键'},</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>577</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="11">
         <v>24</v>
@@ -2481,29 +1947,24 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I66" si="0">"{'name': '"&amp;B3&amp;"', 'replace_name': '"&amp;C3&amp;"'},"</f>
-        <v>{'name': 'loanid', 'replace_name': '申请流水号'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="11">
         <v>20</v>
@@ -2512,29 +1973,24 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'operater_id', 'replace_name': '办理申请人编号'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>450</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="11">
         <v>50</v>
@@ -2543,29 +1999,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'operater_name', 'replace_name': '办理申请人姓名'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>451</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="11">
         <v>20</v>
@@ -2574,29 +2025,24 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'store_id', 'replace_name': '办理申请门店'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="11">
         <v>50</v>
@@ -2605,29 +2051,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'store_name', 'replace_name': '办理申请门店'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>453</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="11">
         <v>20</v>
@@ -2636,29 +2077,24 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apply_date', 'replace_name': '申请单进件日期'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>454</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="11">
         <v>20</v>
@@ -2667,29 +2103,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apply_prodid', 'replace_name': '申请产品'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="11">
         <v>30</v>
@@ -2698,29 +2129,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apply_prodname', 'replace_name': '申请产品'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>456</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="11">
         <v>20</v>
@@ -2729,29 +2155,24 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apply_amount', 'replace_name': '申请金额'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>457</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="11">
         <v>10</v>
@@ -2760,29 +2181,24 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apply_time_limit', 'replace_name': '贷款申请期限'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="11">
         <v>20</v>
@@ -2791,29 +2207,24 @@
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apply_time_limit_val', 'replace_name': '贷款申请期限'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>459</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="11">
         <v>20</v>
@@ -2822,29 +2233,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'sales_person_id', 'replace_name': '销售人员编号'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>460</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="11">
         <v>50</v>
@@ -2853,29 +2259,24 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'sales_person_name', 'replace_name': '销售人员姓名'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="11">
         <v>50</v>
@@ -2884,29 +2285,24 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'sales_person_phone', 'replace_name': '销售人员电话'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>462</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="11">
         <v>20</v>
@@ -2915,29 +2311,24 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'team_manager_id', 'replace_name': '团队经理编号'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>463</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="11">
         <v>50</v>
@@ -2946,29 +2337,24 @@
         <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'team_manager_name', 'replace_name': '团队经理姓名'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>464</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="11">
         <v>10</v>
@@ -2977,29 +2363,24 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'urgency', 'replace_name': '紧急程度'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="11">
         <v>10</v>
@@ -3008,138 +2389,108 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'urgency_val', 'replace_name': '紧急程度'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>466</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'is_round_status', 'replace_name': '是否续借'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="H22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'is_round_status_val', 'replace_name': '是否续借'},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="I23" s="5"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>584</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="5"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="5">
-        <v>20</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'binfo_pk_id', 'replace_name': '主键'},</v>
-      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>587</v>
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="5">
         <v>30</v>
@@ -3148,31 +2499,30 @@
         <v>0</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'loan_pk_id', 'replace_name': '关联外键'},</v>
+        <v>8</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>611</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="5">
         <v>30</v>
@@ -3181,32 +2531,29 @@
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'custname', 'replace_name': '客户姓名'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="5"/>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="5">
         <v>20</v>
@@ -3215,32 +2562,29 @@
         <v>0</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'idcard_no', 'replace_name': '身份证号'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="5"/>
       <c r="K28" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="5">
         <v>10</v>
@@ -3249,32 +2593,29 @@
         <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'sex', 'replace_name': '性别'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I29" s="7"/>
       <c r="J29" s="5"/>
       <c r="K29" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="5">
         <v>10</v>
@@ -3283,32 +2624,29 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'sex_val', 'replace_name': '性别'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="5"/>
       <c r="K30" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="5">
         <v>10</v>
@@ -3317,32 +2655,29 @@
         <v>0</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'edu_background', 'replace_name': '学历'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="5"/>
       <c r="K31" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="5">
         <v>20</v>
@@ -3351,32 +2686,29 @@
         <v>0</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'edu_background_val', 'replace_name': '学历'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I32" s="7"/>
       <c r="J32" s="5"/>
       <c r="K32" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="5">
         <v>10</v>
@@ -3385,32 +2717,29 @@
         <v>0</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'marital_status', 'replace_name': '婚姻状况'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I33" s="7"/>
       <c r="J33" s="5"/>
       <c r="K33" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="5">
         <v>20</v>
@@ -3419,32 +2748,29 @@
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'marital_status_val', 'replace_name': '婚姻状况'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="5"/>
       <c r="K34" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" s="5">
         <v>100</v>
@@ -3453,32 +2779,29 @@
         <v>0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'rresidence_address', 'replace_name': '户口所在地'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" s="5">
         <v>50</v>
@@ -3487,32 +2810,29 @@
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'rresidence_prov_name', 'replace_name': '户口所在地省'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" s="5">
         <v>50</v>
@@ -3521,32 +2841,29 @@
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'rresidence_city_name', 'replace_name': '户口所在地市'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" s="5">
         <v>50</v>
@@ -3555,32 +2872,29 @@
         <v>0</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'rresidence_area_name', 'replace_name': '户口所在地区'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39" s="5">
         <v>50</v>
@@ -3589,32 +2903,29 @@
         <v>0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'rresidence_address_detail', 'replace_name': '户口所在地详细'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" s="5">
         <v>10</v>
@@ -3623,32 +2934,29 @@
         <v>0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'rresidence_zip_code', 'replace_name': '户口所在地邮政编码'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="5">
         <v>20</v>
@@ -3657,157 +2965,144 @@
         <v>0</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'come_here_date', 'replace_name': '来借款申请地时间'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" s="5">
         <v>0</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'raise_person', 'replace_name': '供养人数'},</v>
+        <v>8</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43" s="5">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'child_number', 'replace_name': '子女数目'},</v>
+        <v>8</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="str">
-        <f t="shared" ref="B44" si="1">LOWER(A44)</f>
+        <f t="shared" ref="B26:B69" si="0">LOWER(A44)</f>
         <v/>
       </c>
-      <c r="I44" s="5"/>
       <c r="K44" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>575</v>
+        <v>95</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>zhb_cd_property_info</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="5"/>
+        <v>96</v>
+      </c>
       <c r="K45" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>468</v>
+        <v>98</v>
+      </c>
+      <c r="B46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>pinfo_pk_id</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="5">
+        <v>20</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="5">
-        <v>20</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'pinfo_pk_id', 'replace_name': '主键'},</v>
-      </c>
+      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>431</v>
+        <v>2</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>loan_pk_id</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="5">
         <v>30</v>
@@ -3816,31 +3111,31 @@
         <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'loan_pk_id', 'replace_name': '关联外键'},</v>
+        <v>8</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>469</v>
+        <v>100</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>house_prov_name</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="5">
         <v>30</v>
@@ -3849,29 +3144,27 @@
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'house_prov_name', 'replace_name': '住宅地址（省）'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>470</v>
+        <v>101</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>house_city_name</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="5">
         <v>30</v>
@@ -3880,29 +3173,27 @@
         <v>0</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'house_city_name', 'replace_name': '住宅地址（市）'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>471</v>
+        <v>102</v>
+      </c>
+      <c r="B50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>house_area_name</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="5">
         <v>30</v>
@@ -3911,29 +3202,27 @@
         <v>0</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'house_area_name', 'replace_name': '住宅地址（区）'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>472</v>
+        <v>103</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>start_house_date</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="5">
         <v>30</v>
@@ -3942,26 +3231,24 @@
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="5" t="str">
+        <v>8</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{'name': 'start_house_date', 'replace_name': '现居住地居住时间'},</v>
-      </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="5" t="s">
-        <v>424</v>
+        <v/>
       </c>
       <c r="C52" s="15" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F52" s="14">
         <v>30</v>
@@ -3970,29 +3257,27 @@
         <v>0</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="I52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': '', 'replace_name': '居住状况'},</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="I52" s="14"/>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>473</v>
+        <v>104</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>rent_monthly_pay</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="5">
         <v>30</v>
@@ -4001,29 +3286,27 @@
         <v>0</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'rent_monthly_pay', 'replace_name': '租金月还(元)'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>474</v>
+        <v>105</v>
+      </c>
+      <c r="B54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>property_type</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" s="5">
         <v>10</v>
@@ -4032,29 +3315,27 @@
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'property_type', 'replace_name': '房产类型'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>property_type_val</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="D55" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F55" s="5">
         <v>30</v>
@@ -4063,29 +3344,27 @@
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'property_type_val', 'replace_name': '房产类型'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>476</v>
+        <v>108</v>
+      </c>
+      <c r="B56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>buy_time</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" s="5">
         <v>20</v>
@@ -4094,29 +3373,27 @@
         <v>0</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'buy_time', 'replace_name': '购买时间'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>477</v>
+        <v>109</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>buy_price</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" s="5">
         <v>20</v>
@@ -4125,29 +3402,27 @@
         <v>0</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'buy_price', 'replace_name': '购买价格'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>478</v>
+        <v>110</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>gfa</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F58" s="5">
         <v>20</v>
@@ -4156,29 +3431,27 @@
         <v>0</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'gfa', 'replace_name': '建筑面积'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>479</v>
+        <v>112</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>loan_life</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" s="5">
         <v>20</v>
@@ -4187,29 +3460,27 @@
         <v>0</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'loan_life', 'replace_name': '借款年限'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>480</v>
+        <v>113</v>
+      </c>
+      <c r="B60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>credit_period</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" s="5">
         <v>20</v>
@@ -4218,29 +3489,27 @@
         <v>0</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'credit_period', 'replace_name': '剩余期限'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>481</v>
+        <v>114</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>loans</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" s="5">
         <v>20</v>
@@ -4249,29 +3518,27 @@
         <v>0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'loans', 'replace_name': '贷款余额(元)'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>482</v>
+        <v>115</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>mortgage_monthly_pay</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F62" s="5">
         <v>20</v>
@@ -4280,29 +3547,27 @@
         <v>0</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'mortgage_monthly_pay', 'replace_name': '房贷月还(元)'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>483</v>
+        <v>116</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>is_house_all_val</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F63" s="5">
         <v>10</v>
@@ -4311,29 +3576,27 @@
         <v>0</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'is_house_all_val', 'replace_name': '共有人关系'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>484</v>
+        <v>117</v>
+      </c>
+      <c r="B64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>is_house_all_reltion</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" s="5">
         <v>10</v>
@@ -4342,29 +3605,27 @@
         <v>0</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'is_house_all_reltion', 'replace_name': '共有人关系'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>485</v>
+        <v>118</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>property_prov_name</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" s="5">
         <v>50</v>
@@ -4373,29 +3634,27 @@
         <v>0</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'property_prov_name', 'replace_name': '房产地址省'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>486</v>
+        <v>120</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>property_city_name</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66" s="5">
         <v>50</v>
@@ -4404,29 +3663,27 @@
         <v>0</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'property_city_name', 'replace_name': '房产地址市'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>487</v>
+        <v>122</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>property_area_name</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67" s="5">
         <v>50</v>
@@ -4435,29 +3692,27 @@
         <v>0</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" ref="I67:I130" si="2">"{'name': '"&amp;B67&amp;"', 'replace_name': '"&amp;C67&amp;"'},"</f>
-        <v>{'name': 'property_area_name', 'replace_name': '房产地址区域'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>488</v>
+        <v>124</v>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>is_home_address</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" s="5">
         <v>10</v>
@@ -4466,29 +3721,27 @@
         <v>0</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'is_home_address', 'replace_name': '房产地址是否与住宅地址相同'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>is_home_address_val</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="D69" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F69" s="5">
         <v>10</v>
@@ -4497,19 +3750,14 @@
         <v>0</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'is_home_address_val', 'replace_name': '房产地址是否与住宅地址相同'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
-      <c r="B70" s="5" t="s">
-        <v>424</v>
-      </c>
+      <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -4521,15 +3769,13 @@
     </row>
     <row r="71" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>578</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -4539,53 +3785,46 @@
     </row>
     <row r="72" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>490</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="5">
+        <v>20</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="5">
-        <v>20</v>
-      </c>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'car_pk_id', 'replace_name': '主键'},</v>
-      </c>
+      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="L72" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>431</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F73" s="5">
         <v>30</v>
@@ -4594,34 +3833,31 @@
         <v>0</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'loan_pk_id', 'replace_name': '关联外键'},</v>
+        <v>8</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>491</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B74" s="5"/>
       <c r="C74" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" s="5">
         <v>10</v>
@@ -4630,32 +3866,27 @@
         <v>0</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'car_hava', 'replace_name': '拥有车辆'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="L74" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>492</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B75" s="5"/>
       <c r="C75" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" s="5">
         <v>10</v>
@@ -4664,32 +3895,27 @@
         <v>0</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'car_hava_val', 'replace_name': '拥有车辆'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="L75" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>493</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B76" s="5"/>
       <c r="C76" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F76" s="5">
         <v>10</v>
@@ -4698,32 +3924,27 @@
         <v>0</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'price_car', 'replace_name': '购买价格(万)'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="L76" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>494</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B77" s="5"/>
       <c r="C77" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F77" s="5">
         <v>10</v>
@@ -4732,32 +3953,27 @@
         <v>0</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'car_age', 'replace_name': '车龄'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="L77" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>495</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B78" s="5"/>
       <c r="C78" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F78" s="5">
         <v>10</v>
@@ -4766,32 +3982,27 @@
         <v>0</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'loan_date', 'replace_name': '贷款发放日期'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="L78" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>496</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B79" s="5"/>
       <c r="C79" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F79" s="5">
         <v>10</v>
@@ -4800,31 +4011,25 @@
         <v>0</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I79" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'period_val', 'replace_name': '剩余期限'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I79" s="5"/>
       <c r="L79" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>497</v>
+        <v>148</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F80" s="5">
         <v>10</v>
@@ -4833,31 +4038,24 @@
         <v>0</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I80" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'loan_ceiling', 'replace_name': '贷款总额(万)'},</v>
+        <v>8</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>498</v>
+        <v>151</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F81" s="5">
         <v>10</v>
@@ -4866,31 +4064,24 @@
         <v>0</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I81" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'banlance_val', 'replace_name': '贷款余额(元)'},</v>
+        <v>8</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>499</v>
+        <v>153</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F82" s="5">
         <v>10</v>
@@ -4899,89 +4090,70 @@
         <v>0</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I82" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'mortgage_monthly', 'replace_name': '按揭月供(元)'},</v>
+        <v>8</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B83" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="I83" s="5"/>
       <c r="L83" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>588</v>
+        <v>157</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I84" s="5"/>
+        <v>158</v>
+      </c>
       <c r="L84" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>500</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="5">
+        <v>20</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="5">
-        <v>20</v>
-      </c>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I85" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'rinfo_pk_id', 'replace_name': '主键'},</v>
-      </c>
+      <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="L85" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>431</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F86" s="5">
         <v>30</v>
@@ -4990,31 +4162,28 @@
         <v>0</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'loan_pk_id', 'replace_name': '关联外键'},</v>
+        <v>8</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>501</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F87" s="5">
         <v>10</v>
@@ -5023,29 +4192,24 @@
         <v>0</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I87" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'is_private_owners', 'replace_name': '是否私营业主'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="D88" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F88" s="5">
         <v>20</v>
@@ -5054,29 +4218,24 @@
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'is_private_owners_val', 'replace_name': '是否私营业主'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>503</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F89" s="5">
         <v>20</v>
@@ -5085,29 +4244,23 @@
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'employees_num', 'replace_name': '员工人数'},</v>
+        <v>8</v>
       </c>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>504</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F90" s="5">
         <v>20</v>
@@ -5116,29 +4269,23 @@
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I90" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'industry_in', 'replace_name': '所属行业'},</v>
+        <v>8</v>
       </c>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>505</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F91" s="5">
         <v>100</v>
@@ -5147,29 +4294,23 @@
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I91" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'industry_in_val', 'replace_name': '所属行业'},</v>
+        <v>8</v>
       </c>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>506</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F92" s="5">
         <v>20</v>
@@ -5178,29 +4319,23 @@
         <v>0</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I92" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'founded_date', 'replace_name': '成立时间'},</v>
+        <v>8</v>
       </c>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>507</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93" s="5">
         <v>100</v>
@@ -5209,29 +4344,23 @@
         <v>0</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I93" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'full_work_name', 'replace_name': '工作单位全称'},</v>
+        <v>8</v>
       </c>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>508</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F94" s="5">
         <v>20</v>
@@ -5240,29 +4369,23 @@
         <v>0</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I94" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'company_kind', 'replace_name': '单位性质'},</v>
+        <v>8</v>
       </c>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>509</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F95" s="5">
         <v>20</v>
@@ -5271,29 +4394,23 @@
         <v>0</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I95" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'company_kind_val', 'replace_name': '单位性质'},</v>
+        <v>8</v>
       </c>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>510</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F96" s="5">
         <v>20</v>
@@ -5302,29 +4419,23 @@
         <v>0</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I96" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'work_department', 'replace_name': '任职部门'},</v>
+        <v>8</v>
       </c>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>511</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F97" s="5">
         <v>10</v>
@@ -5333,29 +4444,23 @@
         <v>0</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I97" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'position', 'replace_name': '职位/职务'},</v>
+        <v>8</v>
       </c>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="D98" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F98" s="5">
         <v>20</v>
@@ -5364,27 +4469,22 @@
         <v>0</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I98" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'position_val', 'replace_name': '职位/职务'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>513</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F99" s="5">
         <v>20</v>
@@ -5393,29 +4493,24 @@
         <v>0</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'position_txt', 'replace_name': ''},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>514</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F100" s="5">
         <v>50</v>
@@ -5424,29 +4519,24 @@
         <v>0</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'company_prov_name', 'replace_name': '单位地址省'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>515</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F101" s="5">
         <v>50</v>
@@ -5455,29 +4545,24 @@
         <v>0</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'company_city_name', 'replace_name': '单位地址市'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>516</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B102" s="5"/>
       <c r="C102" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102" s="5">
         <v>50</v>
@@ -5486,29 +4571,24 @@
         <v>0</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'company_area_name', 'replace_name': '单位地址区域'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>517</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F103" s="5">
         <v>20</v>
@@ -5517,29 +4597,24 @@
         <v>0</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'salary_monthly', 'replace_name': '每月基本薪金'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>518</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F104" s="5">
         <v>20</v>
@@ -5548,29 +4623,24 @@
         <v>0</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I104" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'othter_income_monthly', 'replace_name': '每月其他收入'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>519</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B105" s="5"/>
       <c r="C105" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105" s="5">
         <v>20</v>
@@ -5579,28 +4649,22 @@
         <v>0</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I105" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'start_work_time', 'replace_name': '在本单位工作起始时间'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>520</v>
+        <v>193</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F106" s="5">
         <v>20</v>
@@ -5609,28 +4673,21 @@
         <v>0</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I106" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'social_security', 'replace_name': '社保情况'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>521</v>
+        <v>194</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F107" s="5">
         <v>20</v>
@@ -5639,28 +4696,21 @@
         <v>0</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I107" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'social_security_val', 'replace_name': '社保情况'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>522</v>
+        <v>195</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F108" s="5">
         <v>20</v>
@@ -5669,28 +4719,21 @@
         <v>0</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I108" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'company_size', 'replace_name': '公司规模'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>523</v>
+        <v>196</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F109" s="5">
         <v>20</v>
@@ -5699,76 +4742,52 @@
         <v>0</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I109" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'company_size_val', 'replace_name': '公司规模'},</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B110" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="I110" s="5"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>576</v>
+        <v>197</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I111" s="5"/>
+        <v>198</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>524</v>
+        <v>199</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="5">
+        <v>20</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="5">
-        <v>20</v>
-      </c>
-      <c r="G112" s="5">
-        <v>0</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I112" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'cei_pk_id', 'replace_name': '主键'},</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>582</v>
+        <v>6</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F113" s="5">
         <v>100</v>
@@ -5777,28 +4796,21 @@
         <v>0</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I113" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'loanid', 'replace_name': '进件编号'},</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>608</v>
+        <v>201</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F114" s="5">
         <v>20</v>
@@ -5807,28 +4819,21 @@
         <v>0</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I114" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'card_account_number', 'replace_name': '信用卡账户数'},</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>525</v>
+        <v>203</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F115" s="5">
         <v>20</v>
@@ -5837,28 +4842,21 @@
         <v>0</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I115" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'no_cancel_card_account', 'replace_name': '未销户账户数'},</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>526</v>
+        <v>205</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F116" s="5">
         <v>20</v>
@@ -5867,28 +4865,21 @@
         <v>0</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I116" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'creditc_total', 'replace_name': '授信总额'},</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>527</v>
+        <v>207</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F117" s="5">
         <v>20</v>
@@ -5897,28 +4888,21 @@
         <v>0</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I117" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'creditc_max', 'replace_name': '最高授信额'},</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>528</v>
+        <v>209</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F118" s="5">
         <v>20</v>
@@ -5927,28 +4911,21 @@
         <v>0</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I118" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'creditc_used', 'replace_name': '已用额度'},</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>529</v>
+        <v>211</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F119" s="5">
         <v>20</v>
@@ -5957,28 +4934,21 @@
         <v>0</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I119" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'first_card_year', 'replace_name': '首卡发放年月'},</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>530</v>
+        <v>213</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F120" s="5">
         <v>20</v>
@@ -5987,402 +4957,303 @@
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I120" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'card_current_overdue_amount', 'replace_name': '当前逾期金额'},</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" s="5">
+        <v>20</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="5">
+        <v>20</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" s="5">
+        <v>20</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="5">
+        <v>20</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="5">
+        <v>20</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="5">
+        <v>20</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" s="5">
+        <v>20</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="5">
+        <v>20</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" s="5">
-        <v>20</v>
-      </c>
-      <c r="G121" s="5">
-        <v>0</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I121" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'card_overdue_months', 'replace_name': '两年内发放的信用卡-逾期月数'},</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" s="5">
-        <v>20</v>
-      </c>
-      <c r="G122" s="5">
-        <v>0</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I122" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'card_overdue_number', 'replace_name': '两年内发放的信用卡-90天以上逾期次数'},</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C123" s="7"/>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="5">
-        <v>20</v>
-      </c>
-      <c r="G124" s="5">
-        <v>0</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I124" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'pay_house_loans_number', 'replace_name': '购房贷款笔数'},</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F125" s="5">
-        <v>20</v>
-      </c>
-      <c r="G125" s="5">
-        <v>0</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I125" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'home_no_cancel_account', 'replace_name': '未结清笔数'},</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="8" t="s">
+      <c r="D130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="5">
+        <v>20</v>
+      </c>
+      <c r="G130" s="5">
+        <v>0</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" s="5">
+        <v>20</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="5">
+        <v>20</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="5">
+        <v>20</v>
+      </c>
+      <c r="G134" s="5">
+        <v>0</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" s="5">
-        <v>20</v>
-      </c>
-      <c r="G126" s="5">
-        <v>0</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I126" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'mortgage_total', 'replace_name': '房贷总额'},</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="5">
-        <v>20</v>
-      </c>
-      <c r="G127" s="5">
-        <v>0</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I127" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'mortgage_balance', 'replace_name': '房贷余额'},</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" s="5">
-        <v>20</v>
-      </c>
-      <c r="G128" s="5">
-        <v>0</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I128" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'home_monthly_repayment_amount', 'replace_name': '月还金额'},</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" s="5">
-        <v>20</v>
-      </c>
-      <c r="G129" s="5">
-        <v>0</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I129" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'first_credit_year', 'replace_name': '首笔发放年月'},</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="5">
-        <v>20</v>
-      </c>
-      <c r="G130" s="5">
-        <v>0</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I130" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>{'name': 'home_current_overdue_amount', 'replace_name': '当前逾期金额'},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" s="5">
-        <v>20</v>
-      </c>
-      <c r="G131" s="5">
-        <v>0</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I131" s="5" t="str">
-        <f t="shared" ref="I131:I180" si="3">"{'name': '"&amp;B131&amp;"', 'replace_name': '"&amp;C131&amp;"'},"</f>
-        <v>{'name': 'home_overdue_months', 'replace_name': '两年内发放的房贷-逾期月数'},</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" s="5">
-        <v>20</v>
-      </c>
-      <c r="G132" s="5">
-        <v>0</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I132" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'home_overdue_number', 'replace_name': '两年内发放的房贷-90天以上逾期次数'},</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B133" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C133" s="7"/>
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F134" s="5">
-        <v>20</v>
-      </c>
-      <c r="G134" s="5">
-        <v>0</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I134" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'a_other_loans_number', 'replace_name': '其他贷款笔数'},</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="D135" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F135" s="5">
         <v>20</v>
@@ -6391,28 +5262,21 @@
         <v>0</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I135" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'other_no_cancel_account', 'replace_name': '未结清笔数'},</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>544</v>
+        <v>239</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F136" s="5">
         <v>20</v>
@@ -6421,28 +5285,21 @@
         <v>0</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I136" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'other_monthly_repayment_amount', 'replace_name': '月还款额'},</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>545</v>
+        <v>241</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F137" s="5">
         <v>20</v>
@@ -6451,28 +5308,21 @@
         <v>0</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I137" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'loan_amount_three', 'replace_name': '近3月内贷款笔数'},</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>546</v>
+        <v>243</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F138" s="5">
         <v>20</v>
@@ -6481,28 +5331,21 @@
         <v>0</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I138" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'other_current_overdue_amount', 'replace_name': '当前逾期金额'},</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>547</v>
+        <v>244</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F139" s="5">
         <v>20</v>
@@ -6511,28 +5354,21 @@
         <v>0</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I139" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'other_first_credit_year', 'replace_name': '最早发放年月'},</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>548</v>
+        <v>246</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F140" s="5">
         <v>20</v>
@@ -6541,28 +5377,21 @@
         <v>0</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I140" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'other_overdue_months', 'replace_name': '两年内发放的其他贷款-逾期月数'},</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>549</v>
+        <v>248</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F141" s="5">
         <v>20</v>
@@ -6571,35 +5400,24 @@
         <v>0</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I141" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'other_overdue_number', 'replace_name': '两年内发放的其他贷款-90天以上逾期次数'},</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B142" s="5" t="s">
-        <v>424</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C142" s="7"/>
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F143" s="5">
         <v>20</v>
@@ -6608,28 +5426,21 @@
         <v>0</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I143" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'last_1_months', 'replace_name': '近一个月内机构查询次数'},</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>551</v>
+        <v>252</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F144" s="5">
         <v>20</v>
@@ -6638,28 +5449,21 @@
         <v>0</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I144" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'last_1_months_self', 'replace_name': '近一个月内本人查询次数'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>552</v>
+        <v>254</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F145" s="5">
         <v>20</v>
@@ -6668,28 +5472,21 @@
         <v>0</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I145" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'last_3_months', 'replace_name': '近三个月内查询次数'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>609</v>
+        <v>256</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F146" s="5">
         <v>20</v>
@@ -6698,124 +5495,83 @@
         <v>0</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I146" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'last_6_months', 'replace_name': '近六个月查询次数'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B147" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C147" s="7"/>
-      <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B148" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C148" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I148" s="5"/>
+        <v>258</v>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B149" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C149" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I149" s="5"/>
+        <v>259</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B150" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C150" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I150" s="5"/>
+        <v>260</v>
+      </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B151" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C151" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B152" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="I152" s="5"/>
+        <v>261</v>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>585</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B153" s="5"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="5"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>553</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B154" s="5"/>
       <c r="C154" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" s="5">
+        <v>20</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0</v>
+      </c>
+      <c r="H154" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F154" s="5">
-        <v>20</v>
-      </c>
-      <c r="G154" s="5">
-        <v>0</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I154" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'lde_pk_id', 'replace_name': '主键'},</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>411</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F155" s="5">
         <v>30</v>
@@ -6824,28 +5580,22 @@
         <v>0</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I155" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'loanid', 'replace_name': '进件编号'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>554</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F156" s="5">
         <v>20</v>
@@ -6854,29 +5604,24 @@
         <v>0</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I156" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'has_court_net_info', 'replace_name': '是否有法院网信息'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B157" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="D157" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F157" s="5">
         <v>20</v>
@@ -6885,29 +5630,24 @@
         <v>0</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I157" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'has_court_net_info_val', 'replace_name': '是否有法院网信息'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>556</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B158" s="5"/>
       <c r="C158" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F158" s="5">
         <v>2000</v>
@@ -6916,29 +5656,24 @@
         <v>0</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I158" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'has_court_net_info_txt', 'replace_name': '是否有法院网信息'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>557</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B159" s="5"/>
       <c r="C159" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F159" s="5">
         <v>20</v>
@@ -6947,29 +5682,24 @@
         <v>0</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I159" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'income', 'replace_name': '收入证明'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>558</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B160" s="5"/>
       <c r="C160" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F160" s="5">
         <v>10</v>
@@ -6978,29 +5708,24 @@
         <v>0</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I160" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'work_prov_valid', 'replace_name': '工作证明'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>271</v>
-      </c>
       <c r="D161" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F161" s="5">
         <v>20</v>
@@ -7009,29 +5734,24 @@
         <v>0</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I161" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'work_prov_valid_val', 'replace_name': '工作证明'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>560</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B162" s="5"/>
       <c r="C162" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F162" s="5">
         <v>500</v>
@@ -7040,29 +5760,24 @@
         <v>0</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I162" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'work_prov_valid_txt', 'replace_name': '工作证明备注'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>561</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B163" s="5"/>
       <c r="C163" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F163" s="5">
         <v>20</v>
@@ -7071,29 +5786,24 @@
         <v>0</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I163" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'has_business_net_info', 'replace_name': '是否有工商网信息'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B164" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="D164" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F164" s="5">
         <v>20</v>
@@ -7102,29 +5812,24 @@
         <v>0</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I164" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'has_business_net_info_val', 'replace_name': '是否有工商网信息'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>563</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B165" s="5"/>
       <c r="C165" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F165" s="5">
         <v>2000</v>
@@ -7133,29 +5838,24 @@
         <v>0</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I165" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'has_business_net_info_txt', 'replace_name': '是否有工商网信息'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>564</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F166" s="5">
         <v>10</v>
@@ -7164,29 +5864,24 @@
         <v>0</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I166" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'address_prov_valid', 'replace_name': '是否有住址证明'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="D167" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F167" s="5">
         <v>20</v>
@@ -7195,29 +5890,24 @@
         <v>0</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I167" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'address_prov_valid_val', 'replace_name': '是否有住址证明'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>566</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F168" s="5">
         <v>500</v>
@@ -7226,29 +5916,24 @@
         <v>0</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I168" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'address_prov_valid_txt', 'replace_name': '是否有住址证明'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>567</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F169" s="5">
         <v>10</v>
@@ -7257,29 +5942,24 @@
         <v>0</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I169" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'has_property', 'replace_name': '是否有物业'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="D170" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F170" s="5">
         <v>20</v>
@@ -7288,144 +5968,80 @@
         <v>0</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I170" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'has_property_val', 'replace_name': '是否有物业'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B171" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C171" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I171" s="5"/>
+        <v>287</v>
+      </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B172" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C172" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="I172" s="5"/>
+        <v>288</v>
+      </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B173" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="C173" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I173" s="5"/>
+        <v>289</v>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>569</v>
+        <v>290</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="I174" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'verified_income', 'replace_name': '核实收入金额(初审)'},</v>
+        <v>291</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>570</v>
+        <v>292</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="I175" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'verified_debet', 'replace_name': '核实负债金额(初审)'},</v>
+        <v>293</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>571</v>
+        <v>294</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="I176" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'theory_approv_amount', 'replace_name': '理论审批金额(初审'},</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>572</v>
+        <v>296</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I177" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'credit_debt_ratio', 'replace_name': '信用负债率(初审)'},</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>573</v>
+        <v>298</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I178" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'loan_data_analy', 'replace_name': '贷款资料评估'},</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>417</v>
+        <v>299</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="I179" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'trial_inner_opinion', 'replace_name': '初审内部意见'},</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>574</v>
+        <v>301</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I180" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>{'name': 'credit_info_evaluate', 'replace_name': '信用风险点'},</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7440,82 +6056,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>586</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>581</v>
+        <v>305</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>"{'name': '"&amp;B2&amp;"', 'replace_name': '"&amp;C2&amp;"'},"</f>
-        <v>{'name': 'lcinfo_pk_id', 'replace_name': '主键'},</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5">
         <v>100</v>
@@ -7524,29 +6133,26 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I19" si="0">"{'name': '"&amp;B3&amp;"', 'replace_name': '"&amp;C3&amp;"'},"</f>
-        <v>{'name': 'loanid', 'replace_name': '进件编号'},</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5">
         <v>40</v>
@@ -7555,28 +6161,24 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apprvid', 'replace_name': '初审人员'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
         <v>40</v>
@@ -7585,28 +6187,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apprvname', 'replace_name': '初审人员'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5">
         <v>40</v>
@@ -7615,28 +6213,24 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'finalapprvid', 'replace_name': '终审人员'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5">
         <v>40</v>
@@ -7645,28 +6239,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'finalapprvname', 'replace_name': '终审人员'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="5">
         <v>1000</v>
@@ -7675,28 +6265,24 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'trial_primary_opinion', 'replace_name': '初审处理意见'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="5">
         <v>1000</v>
@@ -7705,28 +6291,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'trial_inner_opinion', 'replace_name': '初审内部意见'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5">
         <v>1000</v>
@@ -7735,28 +6317,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'final_primary_opinion', 'replace_name': '终审处理意见'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="5">
         <v>40</v>
@@ -7765,28 +6343,24 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apprvtime', 'replace_name': '初审日期时间'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="5">
         <v>40</v>
@@ -7795,28 +6369,24 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apprvfinaltime', 'replace_name': '终审日期时间'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5">
         <v>40</v>
@@ -7825,28 +6395,24 @@
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'approv_amount', 'replace_name': '初审审批金额'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5">
         <v>40</v>
@@ -7855,28 +6421,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'final_approv_amount', 'replace_name': '终审审批金额'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5">
         <v>40</v>
@@ -7885,25 +6447,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'apptcapi', 'replace_name': '批核金额'},</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="5">
         <v>40</v>
@@ -7912,25 +6470,21 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': '', 'replace_name': '是否退回'},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="5">
         <v>40</v>
@@ -7939,28 +6493,24 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': '', 'replace_name': '是否复议'},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="5">
         <v>40</v>
@@ -7969,28 +6519,24 @@
         <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'final_approv_prodname', 'replace_name': '产品类型'},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5">
         <v>40</v>
@@ -7999,730 +6545,587 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'final_approv_period_val', 'replace_name': '产品期数'},</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="5" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>589</v>
+        <v>333</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>128</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="2">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
         <v>30</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>"{'name': '"&amp;B2&amp;"', 'replace_name': '"&amp;C2&amp;"'},"</f>
-        <v>{'name': 'loanbal_id', 'replace_name': '主键'},</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I23" si="0">"{'name': '"&amp;B3&amp;"', 'replace_name': '"&amp;C3&amp;"'},"</f>
-        <v>{'name': 'loanid', 'replace_name': '进件编号'},</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'contno', 'replace_name': '协议编号'},</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>128</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'custname', 'replace_name': '客户姓名'},</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'paperid', 'replace_name': '身份证号'},</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'prodid', 'replace_name': '产品代码'},</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>128</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'prodname', 'replace_name': '产品名称'},</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="2">
         <v>16</v>
       </c>
-      <c r="G9" s="2">
+      <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'tcapi', 'replace_name': '放款金额'},</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="2">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'signtotalamt', 'replace_name': '签约金额'},</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'tterm', 'replace_name': '贷款期限'},</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'signdate', 'replace_name': '签约日期'},</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'begindate', 'replace_name': '发放日期'},</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'enddate', 'replace_name': '到期日期'},</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'firstretudate', 'replace_name': '还款起始日'},</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'signdate', 'replace_name': '签约日期'},</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F17" s="2">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'amt', 'replace_name': '分期还款额'},</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>451</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
       </c>
       <c r="F18" s="2">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'store_id', 'replace_name': '门店代码'},</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>355</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
       </c>
       <c r="F19" s="2">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'store_name', 'replace_name': '门店名称'},</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>602</v>
+        <v>360</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>357</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
       </c>
       <c r="F20" s="2">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'operid', 'replace_name': '门店客服'},</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>603</v>
+        <v>362</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>357</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
       </c>
       <c r="F21" s="2">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'opername', 'replace_name': '门店客服'},</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>359</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C22" t="s">
-        <v>360</v>
+        <v>363</v>
+      </c>
+      <c r="B22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
       </c>
       <c r="F22" s="2">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'pos_type', 'replace_name': 'pos类型'},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>361</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C23" t="s">
-        <v>360</v>
+        <v>365</v>
+      </c>
+      <c r="B23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20</v>
       </c>
       <c r="F23" s="2">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'name': 'pos_type_val', 'replace_name': 'pos类型'},</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -8742,24 +7145,24 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>30</v>
@@ -8768,23 +7171,23 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -8793,23 +7196,23 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -8818,23 +7221,23 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -8843,21 +7246,21 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>40</v>
@@ -8866,21 +7269,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>40</v>
@@ -8889,21 +7292,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>40</v>
@@ -8912,21 +7315,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
         <v>40</v>
@@ -8935,21 +7338,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E10" s="2">
         <v>16</v>
@@ -8958,21 +7361,21 @@
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E11" s="2">
         <v>16</v>
@@ -8981,21 +7384,21 @@
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -9004,21 +7407,21 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
         <v>40</v>
@@ -9027,21 +7430,21 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E14" s="2">
         <v>16</v>
@@ -9050,21 +7453,21 @@
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E15" s="2">
         <v>16</v>
@@ -9073,21 +7476,21 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E16" s="2">
         <v>16</v>
@@ -9096,21 +7499,21 @@
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
@@ -9119,21 +7522,21 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E18" s="2">
         <v>16</v>
@@ -9142,21 +7545,21 @@
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E19" s="2">
         <v>16</v>
@@ -9165,21 +7568,21 @@
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B20" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E20" s="2">
         <v>16</v>
@@ -9188,21 +7591,21 @@
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E21" s="2">
         <v>16</v>
@@ -9211,21 +7614,21 @@
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E22" s="2">
         <v>16</v>
@@ -9234,21 +7637,21 @@
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E23" s="2">
         <v>16</v>
@@ -9257,21 +7660,21 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
         <v>40</v>
@@ -9280,21 +7683,21 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>40</v>
@@ -9303,21 +7706,21 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2">
         <v>40</v>
@@ -9326,21 +7729,21 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2">
         <v>40</v>
@@ -9349,21 +7752,21 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B28" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2">
         <v>40</v>
@@ -9372,21 +7775,21 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2">
         <v>40</v>
@@ -9395,21 +7798,21 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2">
         <v>40</v>
@@ -9418,21 +7821,21 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2">
         <v>40</v>
@@ -9441,21 +7844,21 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2">
         <v>40</v>
@@ -9464,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
